--- a/dataproject/FPI_KEY_2008_FORWARD.xlsx
+++ b/dataproject/FPI_KEY_2008_FORWARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgensench\OneDrive - WPP Cloud\Diverse\CPH\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgensench\OneDrive - WPP Cloud\Diverse\CPH\Python\projects-2024-econ-jyderne\dataproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E1E9B5-A7BC-42DA-B0DF-8AE7BA36E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193D9EEE-6836-448E-997D-A9F5D66C4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>2008M01</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>15.1 Forbrugerprisindeks ekskl. energi</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -1007,12 +1010,15 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
       <c r="B1" t="s">
         <v>194</v>
       </c>
